--- a/data/xlsx/2024-23.xlsx
+++ b/data/xlsx/2024-23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F164F-CAB5-7945-8C57-F60960208352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D3F6B-5FB3-274F-B75B-85BDA793078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="3" xr2:uid="{3BAE7107-185F-854F-AE73-084DD9BF7E70}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Jesse Lehman</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>Sarah Schradin</t>
   </si>
   <si>
@@ -647,6 +644,9 @@
   </si>
   <si>
     <t>13:58</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1047,65 +1047,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1127,142 +1127,142 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -1271,284 +1271,284 @@
         <v>20</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1570,247 +1570,247 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -1819,68 +1819,68 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1889,54 +1889,54 @@
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1958,209 +1958,209 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -2169,154 +2169,154 @@
         <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2338,247 +2338,247 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -2587,33 +2587,33 @@
         <v>19</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -2622,159 +2622,159 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2797,61 +2797,61 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -2859,100 +2859,100 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -2961,39 +2961,39 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -3002,19 +3002,19 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3037,171 +3037,171 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -3210,48 +3210,48 @@
         <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3274,177 +3274,177 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -3453,249 +3453,249 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3716,19 +3716,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3778,19 +3778,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3802,19 +3802,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3826,19 +3826,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3864,90 +3864,90 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -3955,67 +3955,67 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -4023,107 +4023,107 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
@@ -4131,19 +4131,19 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4162,66 +4162,66 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -4258,19 +4258,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4320,19 +4320,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4344,19 +4344,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -4368,19 +4368,19 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4406,126 +4406,126 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -4535,69 +4535,69 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>12</v>
@@ -4605,19 +4605,19 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4726,19 +4726,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4752,10 +4752,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,7 +4803,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4814,7 +4814,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4828,7 +4828,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -4839,66 +4839,66 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4920,136 +4920,136 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
@@ -5058,83 +5058,83 @@
         <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5158,276 +5158,276 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
@@ -5436,22 +5436,22 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5473,436 +5473,436 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -5911,147 +5911,147 @@
         <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6073,139 +6073,139 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -6214,39 +6214,39 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -6255,127 +6255,127 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6397,212 +6397,212 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6625,247 +6625,247 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -6874,33 +6874,33 @@
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -6909,22 +6909,22 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6952,265 +6952,265 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
